--- a/medicine/Enfance/Denis_Lachaud/Denis_Lachaud.xlsx
+++ b/medicine/Enfance/Denis_Lachaud/Denis_Lachaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Denis Lachaud (né à Paris en 1964) est un auteur, metteur en scène et comédien français.
 </t>
@@ -511,96 +523,248 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le cadre de ses études d'anglais et d'allemand à La Sorbonne, Denis Lachaud passe plusieurs mois en Allemagne durant lesquels il découvre la pratique théâtrale.
-Débuts théâtraux
-À son retour en France, il entre à l'école du théâtre de l'Ombre à Paris (1987-1990).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Débuts théâtraux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À son retour en France, il entre à l'école du théâtre de l'Ombre à Paris (1987-1990).
 En 1990, il fonde avec Christophe Perrier, Franck Magnier, Dörthe Kamphausen et Claudia Orenstein la compagnie Téatralala, au sein de laquelle les trois hommes officient comme auteurs, metteurs en scène et comédiens, après que Dörthe et Claudia sont reparties vers leur pays d'origine (l'Allemagne pour Dörthe, les États-Unis pour Claudia).
-Son premier roman, J'apprends l'allemand, est publié en 1998 chez Actes Sud : « La langue étrangère est l’occasion d’immerger mes personnages dans un autre monde, presque dans une autre personnalité[1]. » La quasi-totalité de son œuvre romanesque et théâtrale est publiée respectivement chez Actes Sud et Actes Sud-Papiers. Depuis 2020, ses pièces paraissent chez Esse Que Éditions.
-Travaux collectifs
-Depuis 2002, il est membre du collectif La Forge, avec les photographes Olivia Gay et Eric Larrayadieu, la plasticienne Marie-Claude Quignon, les graphistes de Nous Travaillons Ensemble et le sociologue Christophe Baticle.
+Son premier roman, J'apprends l'allemand, est publié en 1998 chez Actes Sud : « La langue étrangère est l’occasion d’immerger mes personnages dans un autre monde, presque dans une autre personnalité. » La quasi-totalité de son œuvre romanesque et théâtrale est publiée respectivement chez Actes Sud et Actes Sud-Papiers. Depuis 2020, ses pièces paraissent chez Esse Que Éditions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travaux collectifs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2002, il est membre du collectif La Forge, avec les photographes Olivia Gay et Eric Larrayadieu, la plasticienne Marie-Claude Quignon, les graphistes de Nous Travaillons Ensemble et le sociologue Christophe Baticle.
 Avec Olivia Rosenthal, il écrit, met en scène et joue Olivia Rosenthal et Denis Lachaud occupent le terrain, ensemble de trois performances créées de 2006 à 2008 :
 Olivia Rosenthal et Denis Lachaud, écrivains en colère ;
 Olivia Rosenthal et Denis Lachaud dépassent les bornes ;
 Olivia Rosenthal et Denis Lachaud parlent de l'autre sexe.
-En mars 2011, il participe, avec Laurent Larivière, Vincent Rafis et Sophie Wahnich à l’écriture et à la conception d’un spectacle mêlant théâtre et cinéma, qui est une réflexion sur la situation des sans-papiers en France : Eldorado dit le policier, créé au Centre dramatique national Orléans-Loiret-Centre, puis repris à la Grande Halle de la Villette[2].
+En mars 2011, il participe, avec Laurent Larivière, Vincent Rafis et Sophie Wahnich à l’écriture et à la conception d’un spectacle mêlant théâtre et cinéma, qui est une réflexion sur la situation des sans-papiers en France : Eldorado dit le policier, créé au Centre dramatique national Orléans-Loiret-Centre, puis repris à la Grande Halle de la Villette.
 De 2007 à 2016, il est auteur associé au Centre dramatique national d'Orléans (direction Arthur Nauzyciel).
 En 2019, il crée avec le chorégraphe Amala Dianor Xamûma fane lay dëm / Je ne sais pas où je vais, duo dansé, commande du Festival Concordan(s)e.
-Auteur prolifique
-En 2005-2006, il écrit une pièce sur la schizophrénie, Mon mal en patience. Il la met en scène avec des lycéens d'Orléans. Une des scènes, portant sur l’erreur de diagnostic, est retirée pour devenir, augmentée, La Magie lente, publiée et jouée en 2018.
-En 2011, il publie J'apprends l'hébreu, roman qui s'interroge de nouveau sur ce qui fonde une identité : la famille, le pays, la langue, l'écriture... Il raconte l'histoire d'un jeune homme, Frédéric, âgée de dix-sept ans, qui connaît de graves problèmes de communication, notamment en raison des multiples mutations professionnelles de son père. Après Paris, Oslo et Berlin, il arrive avec sa famille en Israël, où il découvre l'hébreu, une langue qui, de par son incompréhensibilité pour tous, suscite un nouvel espoir en lui. Il décide de partir à la rencontre des habitants de Tel-Aviv avec un dictaphone pour leur poser trois questions, toujours les mêmes : quelle langue parlez-vous ? Quel est votre territoire ? Comment vous sentez-vous à l'extérieur du territoire ? Est-ce que votre territoire a changé en taille pendant votre vie ? Denis Lachaud explique au micro de Caroline Broué sur France culture : « Les questions autour de la langue sont très intéressantes en Israël, parce que c'est un pays qui est encore peuplé de plus de 50 % de gens qui ne sont pas nés là. [...] La question du territoire est très vivace en Israël[3]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Auteur prolifique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2005-2006, il écrit une pièce sur la schizophrénie, Mon mal en patience. Il la met en scène avec des lycéens d'Orléans. Une des scènes, portant sur l’erreur de diagnostic, est retirée pour devenir, augmentée, La Magie lente, publiée et jouée en 2018.
+En 2011, il publie J'apprends l'hébreu, roman qui s'interroge de nouveau sur ce qui fonde une identité : la famille, le pays, la langue, l'écriture... Il raconte l'histoire d'un jeune homme, Frédéric, âgée de dix-sept ans, qui connaît de graves problèmes de communication, notamment en raison des multiples mutations professionnelles de son père. Après Paris, Oslo et Berlin, il arrive avec sa famille en Israël, où il découvre l'hébreu, une langue qui, de par son incompréhensibilité pour tous, suscite un nouvel espoir en lui. Il décide de partir à la rencontre des habitants de Tel-Aviv avec un dictaphone pour leur poser trois questions, toujours les mêmes : quelle langue parlez-vous ? Quel est votre territoire ? Comment vous sentez-vous à l'extérieur du territoire ? Est-ce que votre territoire a changé en taille pendant votre vie ? Denis Lachaud explique au micro de Caroline Broué sur France culture : « Les questions autour de la langue sont très intéressantes en Israël, parce que c'est un pays qui est encore peuplé de plus de 50 % de gens qui ne sont pas nés là. [...] La question du territoire est très vivace en Israël. »
 Fin 2011, il écrit les textes du spectacle Les Grands Plateaux pour le metteur en scène Jean-Philippe Naas (écriture de plateau). Le spectacle est créé à La Filature (à Mulhouse).
-Son roman Ah ! Ça ira..., publié en 2015, reçoit le prix Jean Amila-Meckert 2016, créé onze ans plus tôt par l’association Colères du présent, dans le but de récompenser chaque année le meilleur livre d’expression populaire et de critique sociale, et décerné à l'occasion du Salon du livre d'expression populaire et de critique sociale d'Arras. Denis Lachaud préside le prix Jean Amila-Meckert l'année suivante[4].
-Le 4 avril 2018 au théâtre de Belleville, Pierre Notte et Benoît Giros, respectivement metteur en scène et comédien, créent La Magie lente, qui traite des conséquences d'une erreur de diagnostic. Le critique Frédéric Dieu souligne une double frontalité du texte, « un double tête à tête qui ne montre cependant chaque fois qu’une seule tête. Première frontalité : celle, dans le texte, entre le patient et son analyste d’une part, entre le conférencier et son public d’autre part. […] Seconde frontalité qui vient réitérer et prolonger la première : celle entre le comédien et le public puisque celui-là s’adresse directement à celui-ci ». C'est ce qui explique, selon Frédéric Dieu, pourquoi le texte contient une « froideur clinique, nous dirions même juridique : celle d’un rapport d’expertise médicale que son auteur restitue devant le tribunal, aux jurés, avec toute l’évidence et la supériorité du sachant[5] ». Le spectacle est joué au théâtre de la Reine blanche (Paris), lors d'Avignon Off à Artéphile, lors du festival OUI ! à Dau al sec (Barcelone), etc.
+Son roman Ah ! Ça ira..., publié en 2015, reçoit le prix Jean Amila-Meckert 2016, créé onze ans plus tôt par l’association Colères du présent, dans le but de récompenser chaque année le meilleur livre d’expression populaire et de critique sociale, et décerné à l'occasion du Salon du livre d'expression populaire et de critique sociale d'Arras. Denis Lachaud préside le prix Jean Amila-Meckert l'année suivante.
+Le 4 avril 2018 au théâtre de Belleville, Pierre Notte et Benoît Giros, respectivement metteur en scène et comédien, créent La Magie lente, qui traite des conséquences d'une erreur de diagnostic. Le critique Frédéric Dieu souligne une double frontalité du texte, « un double tête à tête qui ne montre cependant chaque fois qu’une seule tête. Première frontalité : celle, dans le texte, entre le patient et son analyste d’une part, entre le conférencier et son public d’autre part. […] Seconde frontalité qui vient réitérer et prolonger la première : celle entre le comédien et le public puisque celui-là s’adresse directement à celui-ci ». C'est ce qui explique, selon Frédéric Dieu, pourquoi le texte contient une « froideur clinique, nous dirions même juridique : celle d’un rapport d’expertise médicale que son auteur restitue devant le tribunal, aux jurés, avec toute l’évidence et la supériorité du sachant ». Le spectacle est joué au théâtre de la Reine blanche (Paris), lors d'Avignon Off à Artéphile, lors du festival OUI ! à Dau al sec (Barcelone), etc.
 Ses textes ont fait l'objet de traductions en anglais (USA), allemand, portugais, italien, catalan, hébreu et slovaque.
-Vie privée
-Denis Lachaud vit à Paris.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Denis_Lachaud</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denis Lachaud vit à Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Écritures théâtrale et romanesque
-Dans son entretien avec le journaliste et critique Pierre Monastier, Denis Lachaud explique ainsi le moteur de son écriture théâtrale : « J’écris pour les comédiens, parfois connus, parfois inconnus. J’écris pour que le comédien puisse s’épanouir en véhiculant ce texte, produit d’une pensée qui n’est pas la sienne, qu’il puisse déployer ses capacités d’expression, physique, émotionnelle, etc. Quand je commence un texte, je ne sais pas quel type de voix le portera… Quand on écrit pour le théâtre, on laisse de la place pour un autre, d’autant plus que je ne joue ni ne mets en scène mes propres textes[1]. »
-Denis Lachaud distingue par ailleurs nettement, dans ce même entretien, l'écriture théâtrale de l'écriture romanesque, le genre autant que la temporalité se plaçant à différents endroits : « Il n’y a pas de parole romanesque : le roman n’est pas une parole ; il n’est pas écrit pour être proféré. Il passe directement du papier à l’intériorité du lecteur, en silence. Lorsque j’écris du théâtre, je suis justement du côté de la parole. D’où mon architecture en vers. Je suis relié à une temporalité de la parole dans le théâtre – cela doit faire environ une heure, une heure et demie –, quand cette temporalité est du côté du lecteur dans le roman : je ne maîtrise rien de son rythme de lecture[1]. »
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Écritures théâtrale et romanesque</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son entretien avec le journaliste et critique Pierre Monastier, Denis Lachaud explique ainsi le moteur de son écriture théâtrale : « J’écris pour les comédiens, parfois connus, parfois inconnus. J’écris pour que le comédien puisse s’épanouir en véhiculant ce texte, produit d’une pensée qui n’est pas la sienne, qu’il puisse déployer ses capacités d’expression, physique, émotionnelle, etc. Quand je commence un texte, je ne sais pas quel type de voix le portera… Quand on écrit pour le théâtre, on laisse de la place pour un autre, d’autant plus que je ne joue ni ne mets en scène mes propres textes. »
+Denis Lachaud distingue par ailleurs nettement, dans ce même entretien, l'écriture théâtrale de l'écriture romanesque, le genre autant que la temporalité se plaçant à différents endroits : « Il n’y a pas de parole romanesque : le roman n’est pas une parole ; il n’est pas écrit pour être proféré. Il passe directement du papier à l’intériorité du lecteur, en silence. Lorsque j’écris du théâtre, je suis justement du côté de la parole. D’où mon architecture en vers. Je suis relié à une temporalité de la parole dans le théâtre – cela doit faire environ une heure, une heure et demie –, quand cette temporalité est du côté du lecteur dans le roman : je ne maîtrise rien de son rythme de lecture. »
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Denis_Lachaud</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Romans
-1998 : J'apprends l'allemand, Actes Sud
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1998 : J'apprends l'allemand, Actes Sud
 2000 : La Forme profonde, Actes Sud
 2003 : Comme personne, Actes Sud
 2005 : Le vrai est au coffre, Actes Sud
@@ -609,21 +773,123 @@
 2011 : L'Homme inépuisable, en collaboration avec Ulrika Byttner, Éditions du Chemin de fer
 2015 : Ah ! Ça ira..., Actes Sud, prix Jean Amila-Meckert 2016
 2019 : Les Métèques, Actes Sud, prix Lire en poche de littérature française 2022
-2022 : Le Silence d'Ingrid Bergman, Actes Sud
-Littérature jeunesse
-2007 : Foot foot foot, Actes Sud Junior
+2022 : Le Silence d'Ingrid Bergman, Actes Sud</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2007 : Foot foot foot, Actes Sud Junior
 2008 : Moi et ma bouche, Actes Sud-Papiers, collection Heyoka (théâtre)
-2014 : Le Rayon fille, Actes Sud Junior
-Théâtre
-2003 : Hetero, suivi de Ma forêt fantôme, Actes Sud-Papiers
+2014 : Le Rayon fille, Actes Sud Junior</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>2003 : Hetero, suivi de Ma forêt fantôme, Actes Sud-Papiers
 2011 : L’Une, Actes Sud-Papiers
 2018 : La Magie lente suivi de Survie et de La Rivière, Actes Sud-Papiers
 2020 : Jubiler,  Esse Que Éditions, lauréat de l'Aide à la création de textes dramatiques – Artcena
 2021 : L'Archipel suivi de NBA, Esse Que Éditions
 2022 : Déraisonnable suivi de Mon mal en patience, Esse Que Éditions
-2024 : Tant pis c'est moi avec Sam Karmann, L'Avant-scène théâtre
-Autres
-2007 : Fées diverses, ouvrage collectif - La Forge, Dumerchez
+2024 : Tant pis c'est moi avec Sam Karmann, L'Avant-scène théâtre</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2007 : Fées diverses, ouvrage collectif - La Forge, Dumerchez
 2009 : Et le travail ?, ouvrage collectif - La Forge, Dumerchez
 2011 : Nous sommes ici, ouvrage collectif - La Forge, Dumerchez
 2013 : Hors la République ?, ouvrage collectif - La Forge, Dumerchez
@@ -631,31 +897,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Denis_Lachaud</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Denis_Lachaud</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Productions théâtrales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>1996 : Le Lion qui rit et la femme en boîte (texte et mise en scène) Daniel Sorano, Vincennes. Non publié.
 2002 : Ma forêt fantôme (texte et mise en scène) La Fonderie, Le Mans.
